--- a/docs/child friendly dist data features.xlsx
+++ b/docs/child friendly dist data features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Details" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>s]mXp-hn-h-c-§Ä</t>
   </si>
@@ -599,6 +599,189 @@
   </si>
   <si>
     <t>Ip«n-IfpsS P\-kwJy  (0 apXÂ 18 hb-Êp-hsc) s]¬</t>
+  </si>
+  <si>
+    <t>പൊതുവിവരങ്ങള്‍</t>
+  </si>
+  <si>
+    <t>തദ്ദേശസ്വയംഭരണസ്ഥാപനത്തിന്‍റെ പേര്</t>
+  </si>
+  <si>
+    <t>തദ്ദേശസ്വയംഭരണസ്ഥാപനം രൂപീകരിച്ച തിയതി</t>
+  </si>
+  <si>
+    <t>ഭൂവിസ്തൃതി ച.കി.മീ.</t>
+  </si>
+  <si>
+    <t>താലൂക്കിന്‍റെ പേര്</t>
+  </si>
+  <si>
+    <t>സ്ഥിതിചെയ്യുന്ന റവന്യൂ ഡിവിഷന്‍</t>
+  </si>
+  <si>
+    <t>ലോകസഭമണ്ഡലം</t>
+  </si>
+  <si>
+    <t>നിയമസഭാമണ്ഡലം</t>
+  </si>
+  <si>
+    <t>തദ്ദേശസ്ഥാപനത്തിന്‍റെ വാര്‍ഡുകളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t>വനിതകള്‍ക്ക് സംവരണം ചെയ്ത വാര്‍ഡുകളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t>എസ്സ് സി/എസ് റ്റി വാര്‍ഡുകളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t>പ്രദേശത്തുകൂടി ഒഴുകുന്ന നദികള്‍ എണ്ണം, പേര്</t>
+  </si>
+  <si>
+    <t>കടല്‍തീരമാണെങ്കില്‍ നീളം കി.മീ.</t>
+  </si>
+  <si>
+    <t>വനമേഖലയുടെ വിസ്തൃതി (ഹെക്ടറില്‍)</t>
+  </si>
+  <si>
+    <t>ഭൂമിയുടെ തരം</t>
+  </si>
+  <si>
+    <t>പ്രധാനപ്പെട്ട റോഡുകള്‍</t>
+  </si>
+  <si>
+    <t>തൊട്ടടുത്ത റെയില്‍വേസ്റ്റേഷന്‍റെ പേര്</t>
+  </si>
+  <si>
+    <t>ജില്ലാപഞ്ചായത്തിന്‍റെ പേര്</t>
+  </si>
+  <si>
+    <t xml:space="preserve">പഞ്ചായത്ത് സ്ഥിതി ചെയ്യുന്ന ജില്ലാ പഞ്ചായത്ത് വാര്‍ഡ് </t>
+  </si>
+  <si>
+    <t>ബ്ലോക്ക്പഞ്ചായത്തിന്‍റെ പേര്</t>
+  </si>
+  <si>
+    <t>പഞ്ചായത്ത് പ്രദേശത്തെ ബ്ലോക്ക് വാര്‍ഡുകള്‍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ജനസംഖ്യാ വിവരങ്ങള്‍ </t>
+  </si>
+  <si>
+    <t>ജനസംഖ്യ(2011 സെന്‍സസ്) ആണ്‍</t>
+  </si>
+  <si>
+    <t>ജനസംഖ്യ(2011 സെന്‍സസ്) പെണ്‍</t>
+  </si>
+  <si>
+    <t>പട്ടികജാതി വിഭാഗം ആണ്‍</t>
+  </si>
+  <si>
+    <t>പട്ടികജാതി വിഭാഗം പെണ്‍</t>
+  </si>
+  <si>
+    <t>പട്ടികവര്‍ഗ്ഗവിഭാഗം ആണ്‍</t>
+  </si>
+  <si>
+    <t>പട്ടികവര്‍ഗ്ഗവിഭാഗം പെണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  0 മുതല്‍ 6 വയസ്സുവരെ (പൊതു വിഭാഗം) ആണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  0 മുതല്‍ 6 വയസ്സുവരെ (പൊതു വിഭാഗം) പെണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  0 മുതല്‍ 6 വയസ്സുവരെ (പട്ടികജാതി) ആണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  0 മുതല്‍ 6 വയസ്സുവരെ (പട്ടികജാതി) പെണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  0 മുതല്‍ 6 വയസ്സുവരെ (പട്ടികവര്‍ഗ്ഗം) ആണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  0 മുതല്‍ 6 വയസ്സുവരെ (പട്ടികവര്‍ഗ്ഗം) പെണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  6 മുതല്‍ 10 വയസ്സുവരെ ആണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികള്‍  6 മുതല്‍ 10 വയസ്സുവരെ പെണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികളുടെ ജനസംഖ്യ  (0 മുതല്‍ 18 വയസ്സുവരെ) ആണ്‍</t>
+  </si>
+  <si>
+    <t>കുട്ടികളുടെ ജനസംഖ്യ  (0 മുതല്‍ 18 വയസ്സുവരെ) പെണ്‍</t>
+  </si>
+  <si>
+    <t>സാക്ഷരത (പൊതു) ആണ്‍</t>
+  </si>
+  <si>
+    <t>സാക്ഷരത (പൊതു) പെണ്‍</t>
+  </si>
+  <si>
+    <t>ഇതരസംസ്ഥാനതൊഴിലാളികളുടെ എണ്ണം ആണ്‍</t>
+  </si>
+  <si>
+    <t>ഇതരസംസ്ഥാനതൊഴിലാളികളുടെ എണ്ണം പെണ്‍</t>
+  </si>
+  <si>
+    <t>ഇതരസംസ്ഥാനകുട്ടികളുടെ എണ്ണം ആണ്‍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ഇതരസംസ്ഥാനകുട്ടികളുടെ എണ്ണം പെണ്‍ </t>
+  </si>
+  <si>
+    <t>മൂന്നാംലിംഗ വിഭാഗത്തില്‍പ്പെടുന്നവരുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t>കുടുംബങ്ങളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">കുടുംബങ്ങളുടെ എണ്ണം (പട്ടികജാതി) </t>
+  </si>
+  <si>
+    <t>കുടുംബങ്ങളുടെ എണ്ണം (പട്ടികവര്‍ഗ്ഗം)</t>
+  </si>
+  <si>
+    <t>ദാരിദ്ര്യരേഖക്ക് താഴെയുള്ള കുടുംബങ്ങളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 വയസ്സിന് താഴെയുള്ള ആണ്‍ കുട്ടികളുടെ എണ്ണം </t>
+  </si>
+  <si>
+    <t>1 വയസ്സിന് താഴെയുള്ള പെണ്‍ കുട്ടികളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - 3 വയസ്സിന് ഇടയിലുള്ള ആണ്‍ കുട്ടികളുടെ എണ്ണം </t>
+  </si>
+  <si>
+    <t>1 - 3 വയസ്സിന് ഇടയിലുള്ള പെണ്‍ കുട്ടികളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 - 5 വയസ്സിന് ഇടയിലുള്ള ആണ്‍ കുട്ടികളുടെ എണ്ണം </t>
+  </si>
+  <si>
+    <t>3 - 5 വയസ്സിന് ഇടയിലുള്ള പെണ്‍ കുട്ടികളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - 6 വയസ്സിന് ഇടയിലുള്ള ആണ്‍ കുട്ടികളുടെ എണ്ണം </t>
+  </si>
+  <si>
+    <t>5 - 6 വയസ്സിന് ഇടയിലുള്ള പെണ്‍ കുട്ടികളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 - 10 വയസ്സിന് ഇടയിലുള്ള ആണ്‍ കുട്ടികളുടെ എണ്ണം </t>
+  </si>
+  <si>
+    <t>6 - 10 വയസ്സിന് ഇടയിലുള്ള പെണ്‍ കുട്ടികളുടെ എണ്ണം</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 - 18 വയസ്സിന് ഇടയിലുള്ള ആണ്‍ കുട്ടികളുടെ എണ്ണം </t>
+  </si>
+  <si>
+    <t>10 - 18 വയസ്സിന് ഇടയിലുള്ള പെണ്‍ കുട്ടികളുടെ എണ്ണം</t>
   </si>
 </sst>
 </file>
@@ -667,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -693,6 +876,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -987,20 +1171,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="59.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="5">
         <v>1</v>
       </c>
@@ -1010,8 +1195,11 @@
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25">
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="9">
         <v>1.1000000000000001</v>
       </c>
@@ -1021,8 +1209,11 @@
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25">
+      <c r="D2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="9">
         <v>1.2</v>
       </c>
@@ -1032,8 +1223,11 @@
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25">
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="9">
         <v>1.3</v>
       </c>
@@ -1043,8 +1237,11 @@
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25">
+      <c r="D4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="9">
         <v>1.4</v>
       </c>
@@ -1054,8 +1251,11 @@
       <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25">
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9">
         <v>1.5</v>
       </c>
@@ -1065,8 +1265,11 @@
       <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25">
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9">
         <v>1.6</v>
       </c>
@@ -1076,8 +1279,11 @@
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25">
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25">
       <c r="A8" s="9">
         <v>1.7</v>
       </c>
@@ -1087,8 +1293,11 @@
       <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25">
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25">
       <c r="A9" s="9">
         <v>1.8</v>
       </c>
@@ -1098,8 +1307,11 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25">
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25">
       <c r="A10" s="9">
         <v>1.9</v>
       </c>
@@ -1109,8 +1321,11 @@
       <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25">
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
       <c r="A11" s="9" t="s">
         <v>19</v>
       </c>
@@ -1120,8 +1335,11 @@
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25">
+      <c r="D11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1131,8 +1349,11 @@
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
         <v>21</v>
       </c>
@@ -1142,8 +1363,11 @@
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25">
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
@@ -1153,8 +1377,11 @@
       <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25">
+      <c r="D14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25">
       <c r="A15" s="9" t="s">
         <v>23</v>
       </c>
@@ -1164,8 +1391,11 @@
       <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25">
+      <c r="D15" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9" t="s">
         <v>24</v>
       </c>
@@ -1175,8 +1405,11 @@
       <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25">
+      <c r="D16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -1186,8 +1419,11 @@
       <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25">
+      <c r="D17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="6">
         <v>1.17</v>
       </c>
@@ -1197,8 +1433,11 @@
       <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25">
+      <c r="D18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25">
       <c r="A19" s="6">
         <v>1.18</v>
       </c>
@@ -1208,8 +1447,11 @@
       <c r="C19" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
+      <c r="D19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="6">
         <v>1.19</v>
       </c>
@@ -1219,8 +1461,11 @@
       <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
+      <c r="D20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25">
       <c r="A21" s="9" t="s">
         <v>30</v>
       </c>
@@ -1229,6 +1474,9 @@
       </c>
       <c r="C21" s="8" t="s">
         <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1239,20 +1487,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="70.5703125" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
+    <col min="4" max="4" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="5">
         <v>2</v>
       </c>
@@ -1262,8 +1511,11 @@
       <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25">
+      <c r="D1" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="9">
         <v>2.1</v>
       </c>
@@ -1273,8 +1525,11 @@
       <c r="C2" s="8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25">
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="9">
         <v>2.2000000000000002</v>
       </c>
@@ -1284,8 +1539,11 @@
       <c r="C3" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25">
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -1295,8 +1553,11 @@
       <c r="C4" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25">
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="9">
         <v>2.4</v>
       </c>
@@ -1306,8 +1567,11 @@
       <c r="C5" s="8" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25">
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9">
         <v>2.5</v>
       </c>
@@ -1317,8 +1581,11 @@
       <c r="C6" s="8" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25">
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9">
         <v>2.6</v>
       </c>
@@ -1328,8 +1595,11 @@
       <c r="C7" s="8" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25">
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25">
       <c r="A8" s="9">
         <v>2.7</v>
       </c>
@@ -1339,8 +1609,11 @@
       <c r="C8" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25">
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25">
       <c r="A9" s="9">
         <v>2.8</v>
       </c>
@@ -1350,8 +1623,11 @@
       <c r="C9" s="8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25">
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25">
       <c r="A10" s="9">
         <v>2.9</v>
       </c>
@@ -1361,8 +1637,11 @@
       <c r="C10" s="8" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25">
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
       <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
@@ -1372,8 +1651,11 @@
       <c r="C11" s="8" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25">
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25">
       <c r="A12" s="9" t="s">
         <v>58</v>
       </c>
@@ -1383,8 +1665,11 @@
       <c r="C12" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
+      <c r="D12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
         <v>59</v>
       </c>
@@ -1394,8 +1679,11 @@
       <c r="C13" s="8" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25">
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9" t="s">
         <v>60</v>
       </c>
@@ -1405,8 +1693,11 @@
       <c r="C14" s="8" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25">
+      <c r="D14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25">
       <c r="A15" s="9" t="s">
         <v>61</v>
       </c>
@@ -1416,8 +1707,11 @@
       <c r="C15" s="8" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25">
+      <c r="D15" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9" t="s">
         <v>62</v>
       </c>
@@ -1427,8 +1721,11 @@
       <c r="C16" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25">
+      <c r="D16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17.25">
       <c r="A17" s="9" t="s">
         <v>63</v>
       </c>
@@ -1438,8 +1735,11 @@
       <c r="C17" s="8" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25">
+      <c r="D17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.25">
       <c r="A18" s="9">
         <v>2.17</v>
       </c>
@@ -1449,8 +1749,11 @@
       <c r="C18" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25">
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17.25">
       <c r="A19" s="9">
         <v>2.1800000000000002</v>
       </c>
@@ -1460,8 +1763,11 @@
       <c r="C19" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25">
+      <c r="D19" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.25">
       <c r="A20" s="9">
         <v>2.19</v>
       </c>
@@ -1471,8 +1777,11 @@
       <c r="C20" s="10" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25">
+      <c r="D20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25">
       <c r="A21" s="9" t="s">
         <v>128</v>
       </c>
@@ -1482,8 +1791,11 @@
       <c r="C21" s="10" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25">
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17.25">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
@@ -1493,8 +1805,11 @@
       <c r="C22" s="10" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25">
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.25">
       <c r="A23" s="9" t="s">
         <v>130</v>
       </c>
@@ -1504,8 +1819,11 @@
       <c r="C23" s="10" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25">
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.25">
       <c r="A24" s="9" t="s">
         <v>131</v>
       </c>
@@ -1515,8 +1833,11 @@
       <c r="C24" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25">
+      <c r="D24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.25">
       <c r="A25" s="9" t="s">
         <v>132</v>
       </c>
@@ -1526,8 +1847,11 @@
       <c r="C25" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25">
+      <c r="D25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.25">
       <c r="A26" s="9" t="s">
         <v>133</v>
       </c>
@@ -1537,8 +1861,11 @@
       <c r="C26" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25">
+      <c r="D26" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.25">
       <c r="A27" s="9" t="s">
         <v>134</v>
       </c>
@@ -1548,8 +1875,11 @@
       <c r="C27" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25">
+      <c r="D27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.25">
       <c r="A28" s="9" t="s">
         <v>135</v>
       </c>
@@ -1558,6 +1888,9 @@
       </c>
       <c r="C28" s="10" t="s">
         <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1568,31 +1901,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="56.5703125" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25">
+    <row r="1" spans="1:4" ht="20.25">
       <c r="A1" s="5">
         <v>3</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="9" t="s">
         <v>65</v>
       </c>
@@ -1602,8 +1934,11 @@
       <c r="C2" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25">
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25">
       <c r="A3" s="9" t="s">
         <v>66</v>
       </c>
@@ -1613,8 +1948,11 @@
       <c r="C3" s="8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25">
+      <c r="D3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.25">
       <c r="A4" s="9" t="s">
         <v>67</v>
       </c>
@@ -1624,8 +1962,11 @@
       <c r="C4" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25">
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
@@ -1635,8 +1976,11 @@
       <c r="C5" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25">
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.25">
       <c r="A6" s="9" t="s">
         <v>69</v>
       </c>
@@ -1646,8 +1990,11 @@
       <c r="C6" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25">
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.25">
       <c r="A7" s="9" t="s">
         <v>70</v>
       </c>
@@ -1657,8 +2004,11 @@
       <c r="C7" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25">
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.25">
       <c r="A8" s="9" t="s">
         <v>71</v>
       </c>
@@ -1668,8 +2018,11 @@
       <c r="C8" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25">
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25">
       <c r="A9" s="9" t="s">
         <v>72</v>
       </c>
@@ -1679,8 +2032,11 @@
       <c r="C9" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25">
+      <c r="D9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25">
       <c r="A10" s="9" t="s">
         <v>73</v>
       </c>
@@ -1690,8 +2046,11 @@
       <c r="C10" s="8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17.25">
+      <c r="D10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
       <c r="A11" s="9" t="s">
         <v>74</v>
       </c>
@@ -1701,8 +2060,11 @@
       <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25">
+      <c r="D11" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25">
       <c r="A12" s="9" t="s">
         <v>75</v>
       </c>
@@ -1712,8 +2074,11 @@
       <c r="C12" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25">
+      <c r="D12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
       <c r="A13" s="9" t="s">
         <v>76</v>
       </c>
@@ -1723,16 +2088,19 @@
       <c r="C13" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25">
+      <c r="D13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
       <c r="A14" s="9"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:3" ht="17.25">
+    <row r="15" spans="1:4" ht="17.25">
       <c r="A15" s="9"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="17.25">
+    <row r="16" spans="1:4" ht="17.25">
       <c r="A16" s="9"/>
       <c r="C16" s="8"/>
     </row>

--- a/docs/child friendly dist data features.xlsx
+++ b/docs/child friendly dist data features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="General Details" sheetId="1" r:id="rId1"/>
@@ -1173,7 +1173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1903,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
